--- a/team_specific_matrix/Rider_B.xlsx
+++ b/team_specific_matrix/Rider_B.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2</v>
+        <v>0.1931034482758621</v>
       </c>
       <c r="C2">
-        <v>0.5244444444444445</v>
+        <v>0.5344827586206896</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.01777777777777778</v>
+        <v>0.01724137931034483</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1422222222222222</v>
+        <v>0.1482758620689655</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.1155555555555556</v>
+        <v>0.1068965517241379</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.008</v>
+        <v>0.01234567901234568</v>
       </c>
       <c r="C3">
-        <v>0.024</v>
+        <v>0.01851851851851852</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.016</v>
+        <v>0.02469135802469136</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.712</v>
+        <v>0.7222222222222222</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.24</v>
+        <v>0.2222222222222222</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.06666666666666667</v>
+        <v>0.04651162790697674</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.7333333333333333</v>
+        <v>0.6976744186046512</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.2</v>
+        <v>0.2558139534883721</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.07096774193548387</v>
+        <v>0.06282722513089005</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.01290322580645161</v>
+        <v>0.01047120418848168</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.09677419354838709</v>
+        <v>0.08900523560209424</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2193548387096774</v>
+        <v>0.2460732984293194</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.01290322580645161</v>
+        <v>0.02094240837696335</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1419354838709677</v>
+        <v>0.1361256544502618</v>
       </c>
       <c r="R6">
-        <v>0.07741935483870968</v>
+        <v>0.08376963350785341</v>
       </c>
       <c r="S6">
-        <v>0.367741935483871</v>
+        <v>0.3507853403141361</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1151079136690648</v>
+        <v>0.1098901098901099</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.007194244604316547</v>
+        <v>0.01098901098901099</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.07194244604316546</v>
+        <v>0.06593406593406594</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.07913669064748201</v>
+        <v>0.07692307692307693</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.01438848920863309</v>
+        <v>0.01648351648351648</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.2014388489208633</v>
+        <v>0.1758241758241758</v>
       </c>
       <c r="R7">
-        <v>0.07194244604316546</v>
+        <v>0.08241758241758242</v>
       </c>
       <c r="S7">
-        <v>0.4388489208633093</v>
+        <v>0.4615384615384616</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.08035714285714286</v>
+        <v>0.07775377969762419</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.01785714285714286</v>
+        <v>0.02591792656587473</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.06845238095238096</v>
+        <v>0.06047516198704104</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1279761904761905</v>
+        <v>0.1209503239740821</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.0119047619047619</v>
+        <v>0.01079913606911447</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1488095238095238</v>
+        <v>0.1490280777537797</v>
       </c>
       <c r="R8">
-        <v>0.1071428571428571</v>
+        <v>0.1036717062634989</v>
       </c>
       <c r="S8">
-        <v>0.4375</v>
+        <v>0.4514038876889849</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.09174311926605505</v>
+        <v>0.09722222222222222</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.01834862385321101</v>
+        <v>0.02083333333333333</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.04587155963302753</v>
+        <v>0.04166666666666666</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.08256880733944955</v>
+        <v>0.0625</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>0.03472222222222222</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.2660550458715596</v>
+        <v>0.2430555555555556</v>
       </c>
       <c r="R9">
-        <v>0.1100917431192661</v>
+        <v>0.1041666666666667</v>
       </c>
       <c r="S9">
-        <v>0.3853211009174312</v>
+        <v>0.3958333333333333</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1272935779816514</v>
+        <v>0.1252173913043478</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.02293577981651376</v>
+        <v>0.02086956521739131</v>
       </c>
       <c r="E10">
-        <v>0.001146788990825688</v>
+        <v>0.0008695652173913044</v>
       </c>
       <c r="F10">
-        <v>0.06880733944954129</v>
+        <v>0.06347826086956522</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1318807339449541</v>
+        <v>0.1252173913043478</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.01490825688073395</v>
+        <v>0.01913043478260869</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.198394495412844</v>
+        <v>0.1973913043478261</v>
       </c>
       <c r="R10">
-        <v>0.07339449541284404</v>
+        <v>0.08695652173913043</v>
       </c>
       <c r="S10">
-        <v>0.3612385321100918</v>
+        <v>0.3608695652173913</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1391752577319588</v>
+        <v>0.1351351351351351</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.05670103092783505</v>
+        <v>0.07722007722007722</v>
       </c>
       <c r="K11">
-        <v>0.1907216494845361</v>
+        <v>0.2007722007722008</v>
       </c>
       <c r="L11">
-        <v>0.6030927835051546</v>
+        <v>0.5752895752895753</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.01030927835051546</v>
+        <v>0.01158301158301158</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7833333333333333</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.15</v>
+        <v>0.1633986928104575</v>
       </c>
       <c r="K12">
-        <v>0.008333333333333333</v>
+        <v>0.006535947712418301</v>
       </c>
       <c r="L12">
-        <v>0.01666666666666667</v>
+        <v>0.0196078431372549</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.04166666666666666</v>
+        <v>0.03267973856209151</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.7407407407407407</v>
+        <v>0.7837837837837838</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.2592592592592592</v>
+        <v>0.2162162162162162</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1221,7 +1221,7 @@
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.5</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1230,7 +1230,7 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.04964539007092199</v>
+        <v>0.04411764705882353</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1773049645390071</v>
+        <v>0.1568627450980392</v>
       </c>
       <c r="I15">
-        <v>0.07801418439716312</v>
+        <v>0.06372549019607843</v>
       </c>
       <c r="J15">
-        <v>0.3475177304964539</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="K15">
-        <v>0.06382978723404255</v>
+        <v>0.04411764705882353</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.02127659574468085</v>
+        <v>0.01470588235294118</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>0.004901960784313725</v>
       </c>
       <c r="O15">
-        <v>0.0425531914893617</v>
+        <v>0.04901960784313725</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2198581560283688</v>
+        <v>0.2892156862745098</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.01449275362318841</v>
+        <v>0.01621621621621622</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1811594202898551</v>
+        <v>0.1945945945945946</v>
       </c>
       <c r="I16">
-        <v>0.08695652173913043</v>
+        <v>0.07567567567567568</v>
       </c>
       <c r="J16">
-        <v>0.391304347826087</v>
+        <v>0.4108108108108108</v>
       </c>
       <c r="K16">
-        <v>0.07971014492753623</v>
+        <v>0.07567567567567568</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.03623188405797102</v>
+        <v>0.02702702702702703</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.03623188405797102</v>
+        <v>0.04324324324324325</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1739130434782609</v>
+        <v>0.1567567567567568</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.003355704697986577</v>
+        <v>0.005208333333333333</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.2114093959731544</v>
+        <v>0.2109375</v>
       </c>
       <c r="I17">
-        <v>0.08389261744966443</v>
+        <v>0.07291666666666667</v>
       </c>
       <c r="J17">
-        <v>0.4228187919463087</v>
+        <v>0.4270833333333333</v>
       </c>
       <c r="K17">
-        <v>0.06375838926174497</v>
+        <v>0.078125</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.01342281879194631</v>
+        <v>0.01822916666666667</v>
       </c>
       <c r="N17">
-        <v>0.003355704697986577</v>
+        <v>0.002604166666666667</v>
       </c>
       <c r="O17">
-        <v>0.06040268456375839</v>
+        <v>0.05989583333333334</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1375838926174497</v>
+        <v>0.125</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0</v>
+        <v>0.01030927835051546</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.2164179104477612</v>
+        <v>0.2061855670103093</v>
       </c>
       <c r="I18">
-        <v>0.08208955223880597</v>
+        <v>0.06185567010309279</v>
       </c>
       <c r="J18">
-        <v>0.4477611940298508</v>
+        <v>0.4329896907216495</v>
       </c>
       <c r="K18">
-        <v>0.07462686567164178</v>
+        <v>0.08762886597938144</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.01492537313432836</v>
+        <v>0.02061855670103093</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.07462686567164178</v>
+        <v>0.08762886597938144</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.08955223880597014</v>
+        <v>0.09278350515463918</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.01546961325966851</v>
+        <v>0.01410788381742739</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2165745856353591</v>
+        <v>0.2298755186721992</v>
       </c>
       <c r="I19">
-        <v>0.05966850828729282</v>
+        <v>0.06639004149377593</v>
       </c>
       <c r="J19">
-        <v>0.369060773480663</v>
+        <v>0.3634854771784232</v>
       </c>
       <c r="K19">
-        <v>0.118232044198895</v>
+        <v>0.1112033195020747</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.01657458563535912</v>
+        <v>0.01825726141078838</v>
       </c>
       <c r="N19">
-        <v>0.001104972375690608</v>
+        <v>0.0008298755186721991</v>
       </c>
       <c r="O19">
-        <v>0.06961325966850829</v>
+        <v>0.06721991701244813</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1337016574585635</v>
+        <v>0.1286307053941909</v>
       </c>
     </row>
   </sheetData>

--- a/team_specific_matrix/Rider_B.xlsx
+++ b/team_specific_matrix/Rider_B.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1931034482758621</v>
+        <v>0.194888178913738</v>
       </c>
       <c r="C2">
-        <v>0.5344827586206896</v>
+        <v>0.5335463258785943</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.01724137931034483</v>
+        <v>0.01597444089456869</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1482758620689655</v>
+        <v>0.1501597444089457</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.1068965517241379</v>
+        <v>0.1054313099041534</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.01234567901234568</v>
+        <v>0.01123595505617977</v>
       </c>
       <c r="C3">
-        <v>0.01851851851851852</v>
+        <v>0.02808988764044944</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.02469135802469136</v>
+        <v>0.02808988764044944</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7222222222222222</v>
+        <v>0.7078651685393258</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.2222222222222222</v>
+        <v>0.2247191011235955</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.04651162790697674</v>
+        <v>0.04545454545454546</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.6976744186046512</v>
+        <v>0.7045454545454546</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.2558139534883721</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.06282722513089005</v>
+        <v>0.07246376811594203</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.01047120418848168</v>
+        <v>0.00966183574879227</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.08900523560209424</v>
+        <v>0.0821256038647343</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2460732984293194</v>
+        <v>0.2463768115942029</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.02094240837696335</v>
+        <v>0.01932367149758454</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1361256544502618</v>
+        <v>0.1256038647342995</v>
       </c>
       <c r="R6">
-        <v>0.08376963350785341</v>
+        <v>0.07729468599033816</v>
       </c>
       <c r="S6">
-        <v>0.3507853403141361</v>
+        <v>0.3671497584541063</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1098901098901099</v>
+        <v>0.109452736318408</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.01098901098901099</v>
+        <v>0.01492537313432836</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.06593406593406594</v>
+        <v>0.05970149253731343</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.07692307692307693</v>
+        <v>0.0845771144278607</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.01648351648351648</v>
+        <v>0.01492537313432836</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1758241758241758</v>
+        <v>0.1741293532338309</v>
       </c>
       <c r="R7">
-        <v>0.08241758241758242</v>
+        <v>0.08955223880597014</v>
       </c>
       <c r="S7">
-        <v>0.4615384615384616</v>
+        <v>0.4527363184079602</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.07775377969762419</v>
+        <v>0.07509881422924901</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.02591792656587473</v>
+        <v>0.02371541501976284</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.06047516198704104</v>
+        <v>0.06521739130434782</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1209503239740821</v>
+        <v>0.1205533596837945</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.01079913606911447</v>
+        <v>0.009881422924901186</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1490280777537797</v>
+        <v>0.1600790513833992</v>
       </c>
       <c r="R8">
-        <v>0.1036717062634989</v>
+        <v>0.1027667984189723</v>
       </c>
       <c r="S8">
-        <v>0.4514038876889849</v>
+        <v>0.4426877470355731</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.09722222222222222</v>
+        <v>0.09868421052631579</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.02083333333333333</v>
+        <v>0.01973684210526316</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.04166666666666666</v>
+        <v>0.03947368421052631</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.0625</v>
+        <v>0.06578947368421052</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.03472222222222222</v>
+        <v>0.03947368421052631</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.2430555555555556</v>
+        <v>0.2368421052631579</v>
       </c>
       <c r="R9">
-        <v>0.1041666666666667</v>
+        <v>0.1052631578947368</v>
       </c>
       <c r="S9">
-        <v>0.3958333333333333</v>
+        <v>0.3947368421052632</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1252173913043478</v>
+        <v>0.1251015434606012</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.02086956521739131</v>
+        <v>0.02030869212022746</v>
       </c>
       <c r="E10">
-        <v>0.0008695652173913044</v>
+        <v>0.0008123476848090983</v>
       </c>
       <c r="F10">
-        <v>0.06347826086956522</v>
+        <v>0.06417546709991877</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1252173913043478</v>
+        <v>0.1226645004061738</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.01913043478260869</v>
+        <v>0.01868399675060926</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.1973913043478261</v>
+        <v>0.1974004874086109</v>
       </c>
       <c r="R10">
-        <v>0.08695652173913043</v>
+        <v>0.08529650690495533</v>
       </c>
       <c r="S10">
-        <v>0.3608695652173913</v>
+        <v>0.3655564581640942</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1351351351351351</v>
+        <v>0.1330935251798561</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.07722007722007722</v>
+        <v>0.07553956834532374</v>
       </c>
       <c r="K11">
-        <v>0.2007722007722008</v>
+        <v>0.1942446043165468</v>
       </c>
       <c r="L11">
-        <v>0.5752895752895753</v>
+        <v>0.5863309352517986</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.01158301158301158</v>
+        <v>0.01079136690647482</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7777777777777778</v>
+        <v>0.7869822485207101</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1633986928104575</v>
+        <v>0.1538461538461539</v>
       </c>
       <c r="K12">
-        <v>0.006535947712418301</v>
+        <v>0.005917159763313609</v>
       </c>
       <c r="L12">
-        <v>0.0196078431372549</v>
+        <v>0.02366863905325444</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.03267973856209151</v>
+        <v>0.02958579881656805</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.7837837837837838</v>
+        <v>0.7906976744186046</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.2162162162162162</v>
+        <v>0.2093023255813954</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.04411764705882353</v>
+        <v>0.04090909090909091</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1568627450980392</v>
+        <v>0.1545454545454545</v>
       </c>
       <c r="I15">
-        <v>0.06372549019607843</v>
+        <v>0.06818181818181818</v>
       </c>
       <c r="J15">
-        <v>0.3333333333333333</v>
+        <v>0.3409090909090909</v>
       </c>
       <c r="K15">
-        <v>0.04411764705882353</v>
+        <v>0.04545454545454546</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.01470588235294118</v>
+        <v>0.01363636363636364</v>
       </c>
       <c r="N15">
-        <v>0.004901960784313725</v>
+        <v>0.004545454545454545</v>
       </c>
       <c r="O15">
-        <v>0.04901960784313725</v>
+        <v>0.04545454545454546</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2892156862745098</v>
+        <v>0.2863636363636364</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.01621621621621622</v>
+        <v>0.01515151515151515</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1945945945945946</v>
+        <v>0.1868686868686869</v>
       </c>
       <c r="I16">
-        <v>0.07567567567567568</v>
+        <v>0.08080808080808081</v>
       </c>
       <c r="J16">
-        <v>0.4108108108108108</v>
+        <v>0.4090909090909091</v>
       </c>
       <c r="K16">
-        <v>0.07567567567567568</v>
+        <v>0.07575757575757576</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.02702702702702703</v>
+        <v>0.03535353535353535</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.04324324324324325</v>
+        <v>0.04545454545454546</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1567567567567568</v>
+        <v>0.1515151515151515</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.005208333333333333</v>
+        <v>0.007211538461538462</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.2109375</v>
+        <v>0.21875</v>
       </c>
       <c r="I17">
-        <v>0.07291666666666667</v>
+        <v>0.0673076923076923</v>
       </c>
       <c r="J17">
-        <v>0.4270833333333333</v>
+        <v>0.4254807692307692</v>
       </c>
       <c r="K17">
-        <v>0.078125</v>
+        <v>0.07932692307692307</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.01822916666666667</v>
+        <v>0.01682692307692308</v>
       </c>
       <c r="N17">
-        <v>0.002604166666666667</v>
+        <v>0.002403846153846154</v>
       </c>
       <c r="O17">
-        <v>0.05989583333333334</v>
+        <v>0.0625</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.125</v>
+        <v>0.1201923076923077</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.01030927835051546</v>
+        <v>0.00966183574879227</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.2061855670103093</v>
+        <v>0.1980676328502415</v>
       </c>
       <c r="I18">
-        <v>0.06185567010309279</v>
+        <v>0.06280193236714976</v>
       </c>
       <c r="J18">
-        <v>0.4329896907216495</v>
+        <v>0.4202898550724637</v>
       </c>
       <c r="K18">
-        <v>0.08762886597938144</v>
+        <v>0.106280193236715</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.02061855670103093</v>
+        <v>0.02415458937198068</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.08762886597938144</v>
+        <v>0.08695652173913043</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.09278350515463918</v>
+        <v>0.09178743961352658</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.01410788381742739</v>
+        <v>0.01540832049306626</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2298755186721992</v>
+        <v>0.2349768875192604</v>
       </c>
       <c r="I19">
-        <v>0.06639004149377593</v>
+        <v>0.06317411402157165</v>
       </c>
       <c r="J19">
-        <v>0.3634854771784232</v>
+        <v>0.3628659476117103</v>
       </c>
       <c r="K19">
-        <v>0.1112033195020747</v>
+        <v>0.1086286594761171</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.01825726141078838</v>
+        <v>0.01926040061633282</v>
       </c>
       <c r="N19">
-        <v>0.0008298755186721991</v>
+        <v>0.0007704160246533128</v>
       </c>
       <c r="O19">
-        <v>0.06721991701244813</v>
+        <v>0.06779661016949153</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1286307053941909</v>
+        <v>0.1271186440677966</v>
       </c>
     </row>
   </sheetData>

--- a/team_specific_matrix/Rider_B.xlsx
+++ b/team_specific_matrix/Rider_B.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.194888178913738</v>
+        <v>0.1895043731778426</v>
       </c>
       <c r="C2">
-        <v>0.5335463258785943</v>
+        <v>0.5422740524781341</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.01597444089456869</v>
+        <v>0.01457725947521866</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1501597444089457</v>
+        <v>0.1516034985422741</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.1054313099041534</v>
+        <v>0.1020408163265306</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.01123595505617977</v>
+        <v>0.01507537688442211</v>
       </c>
       <c r="C3">
-        <v>0.02808988764044944</v>
+        <v>0.03015075376884422</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.02808988764044944</v>
+        <v>0.02512562814070352</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7078651685393258</v>
+        <v>0.7135678391959799</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.2247191011235955</v>
+        <v>0.2160804020100502</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.04545454545454546</v>
+        <v>0.04347826086956522</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.7045454545454546</v>
+        <v>0.6956521739130435</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.25</v>
+        <v>0.2608695652173913</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.07246376811594203</v>
+        <v>0.07423580786026202</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.00966183574879227</v>
+        <v>0.008733624454148471</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.0821256038647343</v>
+        <v>0.07860262008733625</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2463768115942029</v>
+        <v>0.2532751091703057</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.01932367149758454</v>
+        <v>0.02183406113537118</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1256038647342995</v>
+        <v>0.1179039301310044</v>
       </c>
       <c r="R6">
-        <v>0.07729468599033816</v>
+        <v>0.07423580786026202</v>
       </c>
       <c r="S6">
-        <v>0.3671497584541063</v>
+        <v>0.37117903930131</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.109452736318408</v>
+        <v>0.1031390134529148</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.01492537313432836</v>
+        <v>0.01345291479820628</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.05970149253731343</v>
+        <v>0.05381165919282511</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.0845771144278607</v>
+        <v>0.09417040358744394</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.01492537313432836</v>
+        <v>0.0179372197309417</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1741293532338309</v>
+        <v>0.1748878923766816</v>
       </c>
       <c r="R7">
-        <v>0.08955223880597014</v>
+        <v>0.08520179372197309</v>
       </c>
       <c r="S7">
-        <v>0.4527363184079602</v>
+        <v>0.4573991031390134</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.07509881422924901</v>
+        <v>0.07481751824817519</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.02371541501976284</v>
+        <v>0.0218978102189781</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.06521739130434782</v>
+        <v>0.06204379562043796</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1205533596837945</v>
+        <v>0.1222627737226277</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.009881422924901186</v>
+        <v>0.01094890510948905</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1600790513833992</v>
+        <v>0.1678832116788321</v>
       </c>
       <c r="R8">
-        <v>0.1027667984189723</v>
+        <v>0.1003649635036496</v>
       </c>
       <c r="S8">
-        <v>0.4426877470355731</v>
+        <v>0.4397810218978102</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.09868421052631579</v>
+        <v>0.0963855421686747</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.01973684210526316</v>
+        <v>0.01807228915662651</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.03947368421052631</v>
+        <v>0.03614457831325301</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.06578947368421052</v>
+        <v>0.07228915662650602</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.03947368421052631</v>
+        <v>0.03614457831325301</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.2368421052631579</v>
+        <v>0.2228915662650602</v>
       </c>
       <c r="R9">
-        <v>0.1052631578947368</v>
+        <v>0.108433734939759</v>
       </c>
       <c r="S9">
-        <v>0.3947368421052632</v>
+        <v>0.4096385542168675</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1251015434606012</v>
+        <v>0.1234567901234568</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.02030869212022746</v>
+        <v>0.0196078431372549</v>
       </c>
       <c r="E10">
-        <v>0.0008123476848090983</v>
+        <v>0.0007262164124909223</v>
       </c>
       <c r="F10">
-        <v>0.06417546709991877</v>
+        <v>0.06899055918663761</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1226645004061738</v>
+        <v>0.1270878721859114</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.01868399675060926</v>
+        <v>0.01888162672476398</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.1974004874086109</v>
+        <v>0.1895424836601307</v>
       </c>
       <c r="R10">
-        <v>0.08529650690495533</v>
+        <v>0.08496732026143791</v>
       </c>
       <c r="S10">
-        <v>0.3655564581640942</v>
+        <v>0.3667392883079157</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1330935251798561</v>
+        <v>0.134375</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.07553956834532374</v>
+        <v>0.08125</v>
       </c>
       <c r="K11">
-        <v>0.1942446043165468</v>
+        <v>0.2</v>
       </c>
       <c r="L11">
-        <v>0.5863309352517986</v>
+        <v>0.575</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.01079136690647482</v>
+        <v>0.009375</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7869822485207101</v>
+        <v>0.7842105263157895</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1538461538461539</v>
+        <v>0.1473684210526316</v>
       </c>
       <c r="K12">
-        <v>0.005917159763313609</v>
+        <v>0.01578947368421053</v>
       </c>
       <c r="L12">
-        <v>0.02366863905325444</v>
+        <v>0.02631578947368421</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.02958579881656805</v>
+        <v>0.02631578947368421</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1221,7 +1221,7 @@
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.6666666666666666</v>
+        <v>0.75</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1230,7 +1230,7 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.3333333333333333</v>
+        <v>0.25</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.04090909090909091</v>
+        <v>0.04032258064516129</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1545454545454545</v>
+        <v>0.1451612903225807</v>
       </c>
       <c r="I15">
-        <v>0.06818181818181818</v>
+        <v>0.06048387096774194</v>
       </c>
       <c r="J15">
-        <v>0.3409090909090909</v>
+        <v>0.3588709677419355</v>
       </c>
       <c r="K15">
-        <v>0.04545454545454546</v>
+        <v>0.06048387096774194</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.01363636363636364</v>
+        <v>0.01209677419354839</v>
       </c>
       <c r="N15">
-        <v>0.004545454545454545</v>
+        <v>0.004032258064516129</v>
       </c>
       <c r="O15">
-        <v>0.04545454545454546</v>
+        <v>0.04838709677419355</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2863636363636364</v>
+        <v>0.2701612903225806</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.01515151515151515</v>
+        <v>0.01376146788990826</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1868686868686869</v>
+        <v>0.1788990825688073</v>
       </c>
       <c r="I16">
-        <v>0.08080808080808081</v>
+        <v>0.07798165137614679</v>
       </c>
       <c r="J16">
-        <v>0.4090909090909091</v>
+        <v>0.4174311926605505</v>
       </c>
       <c r="K16">
-        <v>0.07575757575757576</v>
+        <v>0.07339449541284404</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.03535353535353535</v>
+        <v>0.03211009174311927</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.04545454545454546</v>
+        <v>0.05045871559633028</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1515151515151515</v>
+        <v>0.1559633027522936</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.007211538461538462</v>
+        <v>0.01106194690265487</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.21875</v>
+        <v>0.2146017699115044</v>
       </c>
       <c r="I17">
-        <v>0.0673076923076923</v>
+        <v>0.06415929203539823</v>
       </c>
       <c r="J17">
-        <v>0.4254807692307692</v>
+        <v>0.4292035398230089</v>
       </c>
       <c r="K17">
-        <v>0.07932692307692307</v>
+        <v>0.08628318584070796</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.01682692307692308</v>
+        <v>0.01548672566371681</v>
       </c>
       <c r="N17">
-        <v>0.002403846153846154</v>
+        <v>0.002212389380530973</v>
       </c>
       <c r="O17">
-        <v>0.0625</v>
+        <v>0.05973451327433629</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1201923076923077</v>
+        <v>0.1172566371681416</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.00966183574879227</v>
+        <v>0.008849557522123894</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1980676328502415</v>
+        <v>0.1902654867256637</v>
       </c>
       <c r="I18">
-        <v>0.06280193236714976</v>
+        <v>0.07079646017699115</v>
       </c>
       <c r="J18">
-        <v>0.4202898550724637</v>
+        <v>0.4070796460176991</v>
       </c>
       <c r="K18">
-        <v>0.106280193236715</v>
+        <v>0.1150442477876106</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.02415458937198068</v>
+        <v>0.02212389380530973</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>0.004424778761061947</v>
       </c>
       <c r="O18">
-        <v>0.08695652173913043</v>
+        <v>0.08849557522123894</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.09178743961352658</v>
+        <v>0.09292035398230089</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.01540832049306626</v>
+        <v>0.01465457083042568</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2349768875192604</v>
+        <v>0.2337752965806001</v>
       </c>
       <c r="I19">
-        <v>0.06317411402157165</v>
+        <v>0.06350314026517795</v>
       </c>
       <c r="J19">
-        <v>0.3628659476117103</v>
+        <v>0.3642707606420097</v>
       </c>
       <c r="K19">
-        <v>0.1086286594761171</v>
+        <v>0.1088625261688765</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.01926040061633282</v>
+        <v>0.01744591765526867</v>
       </c>
       <c r="N19">
-        <v>0.0007704160246533128</v>
+        <v>0.0006978367062107466</v>
       </c>
       <c r="O19">
-        <v>0.06779661016949153</v>
+        <v>0.06908583391486392</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1271186440677966</v>
+        <v>0.1277041172365666</v>
       </c>
     </row>
   </sheetData>
